--- a/biology/Zoologie/Grallaire_à_tête_rousse/Grallaire_à_tête_rousse.xlsx
+++ b/biology/Zoologie/Grallaire_à_tête_rousse/Grallaire_à_tête_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_t%C3%AAte_rousse</t>
+          <t>Grallaire_à_tête_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria ruficapilla
 La Grallaire à tête rousse (Grallaria ruficapilla) est une espèce d'oiseaux de la famille des Grallariidae vivant en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_t%C3%AAte_rousse</t>
+          <t>Grallaire_à_tête_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 19 cm de longueur pour une masse de 70 à 98 g[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 19 cm de longueur pour une masse de 70 à 98 g.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_t%C3%AAte_rousse</t>
+          <t>Grallaire_à_tête_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Colombie, en Équateur et au Pérou[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Colombie, en Équateur et au Pérou.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_t%C3%AAte_rousse</t>
+          <t>Grallaire_à_tête_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_t%C3%AAte_rousse</t>
+          <t>Grallaire_à_tête_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 sous-espèce Grallaria ruficapilla ruficapilla Lafresnaye, 1842
 sous-espèce Grallaria ruficapilla perijana Phelps &amp; Gilliard, 1940
 sous-espèce Grallaria ruficapilla avilae Hellmayr &amp; Seilern, 1914
